--- a/patient_data/patient_21.xlsx
+++ b/patient_data/patient_21.xlsx
@@ -530,19 +530,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -607,19 +607,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -684,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -939,25 +939,25 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1830,28 +1830,28 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -1907,28 +1907,28 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -1984,28 +1984,28 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2061,28 +2061,28 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2138,28 +2138,28 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2174,19 +2174,19 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2254,16 +2254,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
